--- a/DADD_改修要求仕様書.xlsx
+++ b/DADD_改修要求仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="1060" windowWidth="27020" windowHeight="20460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2360" yWindow="540" windowWidth="27020" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="変更要求仕様書" sheetId="5" r:id="rId1"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月次、週次、日次別に、プロジェクト毎のTODO（作業実績）一覧とメンバー毎のTODO（作業実績）が見られ、作業実績の集計結果が見られ、csv でダウンロードしたい。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PL が作業の進捗や実績を確認するため。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,6 +263,13 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月次、週次、日次別に、プロジェクト毎のTODO（作業実績）一覧とメンバー毎のTODO（作業実績）が見られ、作業実績の集計結果が見られ、集計結果を csv でダウンロードしたい。</t>
+    <rPh sb="67" eb="71">
+      <t>シュウケイケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,6 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -850,7 +854,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="313">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1319,11 +1322,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1573624720"/>
-        <c:axId val="-1573077200"/>
+        <c:axId val="904437568"/>
+        <c:axId val="904438928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1573624720"/>
+        <c:axId val="904437568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1368,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1573077200"/>
+        <c:crossAx val="904438928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1373,7 +1376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1573077200"/>
+        <c:axId val="904438928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,7 +1426,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1573624720"/>
+        <c:crossAx val="904437568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,133 +2033,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>984250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>546100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>6350000</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>844550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右中かっこ 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="5861050" y="-3403600"/>
-          <a:ext cx="298450" cy="10052050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 86196"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="EC6451"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>977900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>4660900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>368300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="円形吹き出し 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5664200" y="190500"/>
-          <a:ext cx="3683000" cy="1104900"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeEllipseCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -38286"/>
-            <a:gd name="adj2" fmla="val 62500"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="EC6451"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>このエリアに書いてある要求と仕様でモックアップを作成してください。右側の黄色い部分は無視してください。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -2780,8 +2656,8 @@
   </sheetPr>
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="12.7109375" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
@@ -2797,7 +2673,7 @@
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2805,13 +2681,13 @@
     </row>
     <row r="2" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -2822,32 +2698,32 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="20"/>
       <c r="H3" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" ht="83" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="I4" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
@@ -2855,12 +2731,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="32"/>
       <c r="F5" s="27"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -2871,10 +2747,10 @@
       <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="32"/>
+      <c r="D6" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="33"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -2885,10 +2761,10 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="34"/>
+      <c r="D7" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -2900,10 +2776,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2917,7 +2793,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2939,16 +2815,16 @@
     <row r="11" spans="2:9" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="3"/>
@@ -2957,36 +2833,36 @@
     <row r="12" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I12" s="18"/>
     </row>
     <row r="13" spans="2:9" s="1" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="3"/>
       <c r="C13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="3"/>
@@ -2995,16 +2871,16 @@
     <row r="14" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="3"/>
@@ -3016,10 +2892,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3033,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3055,37 +2931,37 @@
     <row r="18" spans="2:9" s="1" customFormat="1" ht="172" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:9" s="1" customFormat="1" ht="218" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="18"/>
@@ -3093,19 +2969,19 @@
     <row r="20" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3"/>
       <c r="C20" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="11"/>
       <c r="I20" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="2:9" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -3132,7 +3008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="J4:N8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D9" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
@@ -3152,7 +3028,7 @@
   <sheetData>
     <row r="4" spans="10:14" ht="31" x14ac:dyDescent="0.45">
       <c r="L4" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M4" s="29"/>
       <c r="N4" s="29"/>
@@ -3161,28 +3037,28 @@
       <c r="J5">
         <v>1.5</v>
       </c>
-      <c r="L5" s="35" t="s">
+      <c r="L5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="N5" s="30" t="s">
         <v>40</v>
-      </c>
-      <c r="N5" s="30" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="10:14" ht="31" x14ac:dyDescent="0.45">
       <c r="J6">
         <v>2.6</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="N6" s="30" t="s">
         <v>43</v>
-      </c>
-      <c r="N6" s="30" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="10:14" x14ac:dyDescent="0.3">
